--- a/Supplementary_Fig_2.xlsx
+++ b/Supplementary_Fig_2.xlsx
@@ -518,7 +518,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,6 +532,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -816,7 +816,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,10 +829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1039,23 +1039,23 @@
       <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -1384,17 +1384,17 @@
         <f t="shared" si="0"/>
         <v>-25.235881884562982</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="27">
         <f>AVERAGE(B15:T15)</f>
         <v>-20.560660213643441</v>
       </c>
-      <c r="W15" s="27">
+      <c r="W15" s="26">
         <f>CONFIDENCE(0.05,STDEV(B15:T15),19)</f>
         <v>3.0317082064795446</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1597,11 +1597,11 @@
         <f t="shared" si="1"/>
         <v>-118129218900675.03</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="27">
         <f>AVERAGE(B23:L23)</f>
         <v>-228159237268566.53</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="26">
         <f>CONFIDENCE(0.05,STDEV(B23:L23),11)</f>
         <v>76137887676141.328</v>
       </c>
@@ -1621,138 +1621,138 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
